--- a/集計.xlsx
+++ b/集計.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reimiogi/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reimiogi/Desktop/大学/3年次/秋学期/英語/EnglishReport/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8AB3574-B982-9B4F-AA2A-48FA008B7454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6649DCDB-D78A-3746-8072-8268D0CCC111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9260" yWindow="500" windowWidth="15520" windowHeight="16000" xr2:uid="{5BFE65F7-510E-2E4D-9D72-2FE37384EE12}"/>
+    <workbookView xWindow="3940" yWindow="500" windowWidth="20840" windowHeight="16000" xr2:uid="{5BFE65F7-510E-2E4D-9D72-2FE37384EE12}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -465,7 +465,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="G2" sqref="G2:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -729,6 +729,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G2:G13">
+    <sortCondition ref="G2:G13"/>
+  </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
